--- a/Норм. расп.xlsx
+++ b/Норм. расп.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Java\SOM\som-master\FirstLabRaspoznov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92A783-6350-4DCF-9B16-9AB978ACA491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C8294-1073-401E-B243-4872D514813E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5E3FFD5-603D-4470-8C21-1D556E8FDC6A}"/>
   </bookViews>
